--- a/data/info.csv.xlsx
+++ b/data/info.csv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothy Anene\Documents\Lab-1\TimothyAnene-100366930-Lab-1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothy Anene\Desktop\CourseFiles\CPSC4800\Lab-1\TimothyAnene-100366930-Lab-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,18 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YourName </t>
-  </si>
-  <si>
-    <t>YourID</t>
   </si>
   <si>
     <t>Timothy Anene</t>
@@ -356,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,31 +364,19 @@
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2">
-        <v>100366930</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
         <v>100366930</v>
       </c>
     </row>
